--- a/IVVD.xlsx
+++ b/IVVD.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5885E803-DF16-4F00-890F-357BC4DDFE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C02AD8-9B8D-490D-9CE8-9C8E96193F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9580" yWindow="3610" windowWidth="28800" windowHeight="15370" xr2:uid="{61366869-16D4-446F-B39F-24BBF769A425}"/>
+    <workbookView xWindow="-23130" yWindow="1740" windowWidth="22140" windowHeight="18900" activeTab="1" xr2:uid="{61366869-16D4-446F-B39F-24BBF769A425}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Pemgarda" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>Price</t>
   </si>
@@ -83,14 +85,113 @@
     <t>VYD2311</t>
   </si>
   <si>
-    <t>13.8, 9.3m</t>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Prepaid</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Lease</t>
+  </si>
+  <si>
+    <t>ONCA</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Accrued</t>
+  </si>
+  <si>
+    <t>OCL</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>LP.8.1, KP.3.1.1 and XEC</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>PEMGARDA</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>pemivibart</t>
+  </si>
+  <si>
+    <t>Clinical Trials</t>
+  </si>
+  <si>
+    <t>Phase III "CANOPY"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +200,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -208,31 +345,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F687988E-B228-413C-8845-E3E56EFE3DD6}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -242,6 +396,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>32656</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>32656</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2FA247C-7C53-C774-6050-3C3647AB3D00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4109356" y="0"/>
+          <a:ext cx="0" cy="5720443"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -561,33 +770,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AFF298-642F-4A79-A7A4-50EEB766F0D8}">
-  <dimension ref="B2:N11"/>
+  <dimension ref="B2:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
       <c r="L2" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,74 +804,56 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
+      <c r="H3" s="5"/>
       <c r="L3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>119.616035</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+        <v>119.961445</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="5"/>
       <c r="L4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M4" s="2">
         <f>+M2*M3</f>
-        <v>64.592658900000004</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+        <v>64.779180300000007</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="5"/>
       <c r="L5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="2">
-        <v>106.869</v>
+        <v>69.349000000000004</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="5"/>
       <c r="L6" s="1" t="s">
         <v>4</v>
       </c>
@@ -673,39 +864,634 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="5"/>
       <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="2">
         <f>+M4-M5+M6</f>
-        <v>-42.276341099999996</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4.5698196999999965</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B13" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6D558-BC7E-4B63-893B-A725DF1873B6}">
+  <dimension ref="A1:M29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="13" customWidth="1"/>
+    <col min="3" max="10" width="9.140625" style="12"/>
+    <col min="11" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>15</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="13">
+        <v>2023</v>
+      </c>
+      <c r="M2" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0</v>
+      </c>
+      <c r="D3" s="16">
+        <v>2264</v>
+      </c>
+      <c r="E3" s="16">
+        <v>9300</v>
+      </c>
+      <c r="F3" s="16">
+        <v>13800</v>
+      </c>
+      <c r="G3" s="16">
+        <f>+F3+8000</f>
+        <v>21800</v>
+      </c>
+      <c r="H3" s="16">
+        <f>+G3+8000</f>
+        <v>29800</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="L3" s="17">
+        <v>0</v>
+      </c>
+      <c r="M3" s="17">
+        <v>25384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>88</v>
+      </c>
+      <c r="E4" s="15">
+        <v>806</v>
+      </c>
+      <c r="F4" s="15">
+        <f>1618-E4-D4</f>
+        <v>724</v>
+      </c>
+      <c r="G4" s="15">
+        <f>+G3*0.1</f>
+        <v>2180</v>
+      </c>
+      <c r="H4" s="15">
+        <f>+H3*0.1</f>
+        <v>2980</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <f>+D3-D4</f>
+        <v>2176</v>
+      </c>
+      <c r="E5" s="15">
+        <f>+E3-E4</f>
+        <v>8494</v>
+      </c>
+      <c r="F5" s="15">
+        <f>+F3-F4</f>
+        <v>13076</v>
+      </c>
+      <c r="G5" s="15">
+        <f>+G3-G4</f>
+        <v>19620</v>
+      </c>
+      <c r="H5" s="15">
+        <f>+H3-H4</f>
+        <v>26820</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="15">
+        <v>31160</v>
+      </c>
+      <c r="D6" s="15">
+        <v>30334</v>
+      </c>
+      <c r="E6" s="15">
+        <v>57850</v>
+      </c>
+      <c r="F6" s="15">
+        <f>137254-E6-D6-C6</f>
+        <v>17910</v>
+      </c>
+      <c r="G6" s="15">
+        <f>+F6+-1500</f>
+        <v>16410</v>
+      </c>
+      <c r="H6" s="15">
+        <f>+G6+-1500</f>
+        <v>14910</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="15">
+        <v>14929</v>
+      </c>
+      <c r="D7" s="15">
+        <v>21089</v>
+      </c>
+      <c r="E7" s="15">
+        <v>12955</v>
+      </c>
+      <c r="F7" s="15">
+        <f>63388-E7-D7-C7</f>
+        <v>14415</v>
+      </c>
+      <c r="G7" s="15">
+        <f>+F7</f>
+        <v>14415</v>
+      </c>
+      <c r="H7" s="15">
+        <f>+G7</f>
+        <v>14415</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="15">
+        <f t="shared" ref="C8" si="0">+C7+C6</f>
+        <v>46089</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" ref="D8" si="1">+D7+D6</f>
+        <v>51423</v>
+      </c>
+      <c r="E8" s="15">
+        <f>+E7+E6</f>
+        <v>70805</v>
+      </c>
+      <c r="F8" s="15">
+        <f>+F7+F6</f>
+        <v>32325</v>
+      </c>
+      <c r="G8" s="15">
+        <f>+G7+G6</f>
+        <v>30825</v>
+      </c>
+      <c r="H8" s="15">
+        <f>+H7+H6</f>
+        <v>29325</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="15">
+        <f t="shared" ref="C9" si="2">+C5-C8</f>
+        <v>-46089</v>
+      </c>
+      <c r="D9" s="15">
+        <f t="shared" ref="D9" si="3">+D5-D8</f>
+        <v>-49247</v>
+      </c>
+      <c r="E9" s="15">
+        <f>+E5-E8</f>
+        <v>-62311</v>
+      </c>
+      <c r="F9" s="15">
+        <f>+F5-F8</f>
+        <v>-19249</v>
+      </c>
+      <c r="G9" s="15">
+        <f>+G5-G8</f>
+        <v>-11205</v>
+      </c>
+      <c r="H9" s="15">
+        <f>+H5-H8</f>
+        <v>-2505</v>
+      </c>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="12" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15">
+        <v>106869</v>
+      </c>
+      <c r="F12" s="15">
+        <v>69349</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15">
+        <v>8154</v>
+      </c>
+      <c r="F13" s="15">
+        <v>10906</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15">
+        <v>9011</v>
+      </c>
+      <c r="F14" s="15">
+        <v>20426</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16">
+        <v>27067</v>
+      </c>
+      <c r="F15" s="16">
+        <v>25907</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15">
+        <v>1640</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1508</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15">
+        <v>1729</v>
+      </c>
+      <c r="F17" s="15">
+        <v>1385</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15">
+        <v>7452</v>
+      </c>
+      <c r="F18" s="15">
+        <v>34</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15">
+        <f>SUM(E12:E18)</f>
+        <v>161922</v>
+      </c>
+      <c r="F19" s="15">
+        <f>SUM(F12:F18)</f>
+        <v>129515</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="21" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15">
+        <v>17707</v>
+      </c>
+      <c r="F21" s="15">
+        <v>10448</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15">
+        <v>59401</v>
+      </c>
+      <c r="F22" s="15">
+        <v>50197</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15">
+        <v>1414</v>
+      </c>
+      <c r="F23" s="15">
+        <v>1304</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+    </row>
+    <row r="24" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15">
+        <f>20+219</f>
+        <v>239</v>
+      </c>
+      <c r="F24" s="15">
+        <v>27</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15">
+        <v>83161</v>
+      </c>
+      <c r="F25" s="15">
+        <v>67539</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+    </row>
+    <row r="26" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15">
+        <f>SUM(E21:E25)</f>
+        <v>161922</v>
+      </c>
+      <c r="F26" s="15">
+        <f>SUM(F21:F25)</f>
+        <v>129515</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F29" s="15">
+        <f>+F12-E12</f>
+        <v>-37520</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{7FA85A5C-3DF6-4F9C-BABD-6D90ADF69743}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091CF6BC-D956-4882-8A95-78F37CA185A7}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="13">
+        <v>62.9</v>
+      </c>
+      <c r="D13" s="13">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="14">
+        <f>300000/D13*C13*1000</f>
+        <v>188700</v>
       </c>
     </row>
   </sheetData>
